--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymac/Desktop/select论文/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymac/Desktop/2025VulCleaning总结/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D539651D-EB95-284A-BEA6-A426A82DD987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A6877A-A875-2F4A-BB8C-9AAD2D19E234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="28020" windowHeight="15900" xr2:uid="{63343C17-6E7C-5446-988F-25319E090E11}"/>
+    <workbookView xWindow="9880" yWindow="680" windowWidth="18780" windowHeight="15900" activeTab="1" xr2:uid="{63343C17-6E7C-5446-988F-25319E090E11}"/>
   </bookViews>
   <sheets>
     <sheet name="F1&amp;Top10" sheetId="1" r:id="rId1"/>
     <sheet name="Pre&amp;Rec" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="26">
   <si>
     <t>Dataset</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>VULGEN</t>
-  </si>
-  <si>
-    <t>VulScriber</t>
   </si>
   <si>
     <t>Percentage</t>
@@ -77,9 +74,6 @@
     <t>EL2N</t>
   </si>
   <si>
-    <t>VulFilter</t>
-  </si>
-  <si>
     <t>LineVul:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>Juliet</t>
-  </si>
-  <si>
-    <t>FVS</t>
   </si>
   <si>
     <t>LineVD:</t>
@@ -112,6 +103,24 @@
   </si>
   <si>
     <t>Recall</t>
+  </si>
+  <si>
+    <t>Juliet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg 5 times</t>
+  </si>
+  <si>
+    <t>avg 5 times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIGS</t>
+  </si>
+  <si>
+    <t>DIGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -235,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +263,15 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,16 +281,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,15 +603,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD9CC89-BA15-CD4A-BA6E-BC550FFE0D8C}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -613,12 +628,12 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -668,7 +683,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>16.746000000000002</v>
@@ -689,39 +704,39 @@
         <v>14.735999999999999</v>
       </c>
       <c r="H5" s="2">
-        <v>13.270000000000001</v>
+        <v>14.836666666666668</v>
       </c>
       <c r="I5" s="2">
-        <v>16.262</v>
+        <v>16.785</v>
       </c>
       <c r="J5" s="2">
-        <v>15.018000000000001</v>
+        <v>15.756666666666668</v>
       </c>
       <c r="K5" s="2">
         <v>16.622</v>
       </c>
       <c r="L5" s="2">
-        <v>23.167999999999999</v>
+        <v>15.02</v>
       </c>
       <c r="M5" s="2">
-        <v>23.354000000000003</v>
+        <v>14.31</v>
       </c>
       <c r="N5" s="2">
-        <v>23.848000000000003</v>
+        <v>16.18</v>
       </c>
       <c r="O5" s="2">
-        <v>24.771999999999998</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="P5" s="2">
-        <v>22.632000000000001</v>
+        <v>17.439999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>15.928000000000001</v>
@@ -736,7 +751,7 @@
         <v>16.125999999999998</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2">
         <v>15.538</v>
@@ -751,27 +766,27 @@
         <v>16.157999999999998</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="2">
-        <v>23.509999999999998</v>
+        <v>16.66</v>
       </c>
       <c r="N6" s="2">
-        <v>26.1</v>
+        <v>11.335000000000001</v>
       </c>
       <c r="O6" s="2">
-        <v>22.086000000000002</v>
+        <v>14.780000000000001</v>
       </c>
       <c r="P6" s="2">
-        <v>21.728000000000002</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>17.003999999999998</v>
@@ -786,7 +801,7 @@
         <v>16.175999999999998</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2">
         <v>14.675999999999998</v>
@@ -801,27 +816,27 @@
         <v>16.134</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7" s="2">
-        <v>23.788000000000004</v>
+        <v>16.55</v>
       </c>
       <c r="N7" s="2">
-        <v>26.588000000000001</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="O7" s="2">
-        <v>23.497999999999998</v>
+        <v>14.27</v>
       </c>
       <c r="P7" s="2">
-        <v>25.703999999999997</v>
+        <v>14.74</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>17.306000000000001</v>
@@ -836,7 +851,7 @@
         <v>16.802</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2">
         <v>15.736000000000001</v>
@@ -851,27 +866,27 @@
         <v>16.277999999999999</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" s="2">
-        <v>25.631999999999998</v>
+        <v>14.21</v>
       </c>
       <c r="N8" s="2">
-        <v>26.552</v>
+        <v>15.133333333333333</v>
       </c>
       <c r="O8" s="2">
-        <v>25.936</v>
+        <v>14.82</v>
       </c>
       <c r="P8" s="2">
-        <v>23.556000000000001</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>16.948</v>
@@ -886,7 +901,7 @@
         <v>16.716000000000001</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="2">
         <v>15.864000000000001</v>
@@ -901,27 +916,27 @@
         <v>15.538</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" s="2">
-        <v>24.187999999999999</v>
+        <v>16.45</v>
       </c>
       <c r="N9" s="2">
-        <v>25.687999999999999</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="O9" s="2">
-        <v>24.842000000000002</v>
+        <v>16.43</v>
       </c>
       <c r="P9" s="2">
-        <v>23.556000000000001</v>
+        <v>17.579999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>17.48</v>
@@ -936,7 +951,7 @@
         <v>17.353999999999999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2">
         <v>15.644</v>
@@ -951,27 +966,27 @@
         <v>17.354000000000003</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M10" s="2">
-        <v>20.268000000000001</v>
+        <v>14.77</v>
       </c>
       <c r="N10" s="2">
-        <v>17.094000000000001</v>
+        <v>14.315000000000001</v>
       </c>
       <c r="O10" s="2">
-        <v>21.31</v>
+        <v>11.673333333333332</v>
       </c>
       <c r="P10" s="2">
-        <v>15.741999999999999</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>17.053999999999998</v>
@@ -986,7 +1001,7 @@
         <v>16.334</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2">
         <v>14.974</v>
@@ -1001,27 +1016,27 @@
         <v>16.001999999999999</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M11" s="2">
-        <v>24.021999999999998</v>
+        <v>14.7</v>
       </c>
       <c r="N11" s="2">
-        <v>26.408000000000005</v>
+        <v>14.785</v>
       </c>
       <c r="O11" s="2">
-        <v>22.003999999999998</v>
+        <v>13.96</v>
       </c>
       <c r="P11" s="2">
-        <v>21.416</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <v>20.589999999999996</v>
@@ -1036,7 +1051,7 @@
         <v>20.268000000000001</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="2">
         <v>17.804000000000002</v>
@@ -1051,19 +1066,19 @@
         <v>19.86</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M12" s="2">
-        <v>28.102000000000004</v>
+        <v>23.094999999999999</v>
       </c>
       <c r="N12" s="2">
-        <v>28.886000000000003</v>
+        <v>22.305</v>
       </c>
       <c r="O12" s="2">
-        <v>28.227999999999998</v>
+        <v>24.66</v>
       </c>
       <c r="P12" s="2">
-        <v>28.106000000000002</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1085,7 +1100,10 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1099,12 +1117,12 @@
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -1154,7 +1172,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2">
         <v>11.827999999999999</v>
@@ -1187,27 +1205,27 @@
         <v>14.124000000000001</v>
       </c>
       <c r="L20" s="2">
-        <v>10.254</v>
+        <v>13.86</v>
       </c>
       <c r="M20" s="2">
-        <v>11.084</v>
+        <v>15.040000000000001</v>
       </c>
       <c r="N20" s="2">
-        <v>12.084</v>
+        <v>13.492000000000001</v>
       </c>
       <c r="O20" s="2">
-        <v>14.875999999999999</v>
+        <v>14.048000000000002</v>
       </c>
       <c r="P20" s="2">
-        <v>12.454000000000001</v>
+        <v>13.516</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
         <v>11.465999999999999</v>
@@ -1222,7 +1240,7 @@
         <v>12.132</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2">
         <v>13.312000000000001</v>
@@ -1237,27 +1255,27 @@
         <v>14.238</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M21" s="2">
-        <v>16.042000000000002</v>
+        <v>16.18</v>
       </c>
       <c r="N21" s="2">
-        <v>13.641999999999999</v>
+        <v>13.76</v>
       </c>
       <c r="O21" s="2">
-        <v>13.762</v>
+        <v>14.967499999999999</v>
       </c>
       <c r="P21" s="2">
-        <v>16.052</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
         <v>13.313999999999998</v>
@@ -1272,7 +1290,7 @@
         <v>10.212</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2">
         <v>16.911999999999999</v>
@@ -1287,27 +1305,27 @@
         <v>15.627999999999997</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22" s="2">
-        <v>13.402000000000001</v>
+        <v>14.373333333333335</v>
       </c>
       <c r="N22" s="2">
-        <v>12.346</v>
+        <v>14.524000000000001</v>
       </c>
       <c r="O22" s="2">
-        <v>16.239999999999998</v>
+        <v>14.077999999999999</v>
       </c>
       <c r="P22" s="2">
-        <v>15.254</v>
+        <v>14.2075</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
         <v>14.282</v>
@@ -1322,7 +1340,7 @@
         <v>11.852</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2">
         <v>16.326000000000001</v>
@@ -1337,27 +1355,27 @@
         <v>14.904</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23" s="2">
-        <v>13.266</v>
+        <v>14.9</v>
       </c>
       <c r="N23" s="2">
-        <v>11.92</v>
+        <v>13.44</v>
       </c>
       <c r="O23" s="2">
-        <v>13.934000000000001</v>
+        <v>14.795</v>
       </c>
       <c r="P23" s="2">
-        <v>14.372</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
         <v>12.738</v>
@@ -1372,7 +1390,7 @@
         <v>11.986000000000001</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2">
         <v>16.374000000000002</v>
@@ -1387,27 +1405,27 @@
         <v>14.878</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M24" s="2">
-        <v>13.378</v>
+        <v>15.04</v>
       </c>
       <c r="N24" s="2">
-        <v>11.928000000000001</v>
+        <v>15.765000000000001</v>
       </c>
       <c r="O24" s="2">
-        <v>13.463999999999999</v>
+        <v>14.386666666666668</v>
       </c>
       <c r="P24" s="2">
-        <v>14.738</v>
+        <v>14.405000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
         <v>12.891999999999999</v>
@@ -1422,7 +1440,7 @@
         <v>12.75</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
         <v>16.798000000000002</v>
@@ -1437,27 +1455,27 @@
         <v>15.851999999999999</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25" s="2">
-        <v>14.668000000000001</v>
+        <v>15.855</v>
       </c>
       <c r="N25" s="2">
-        <v>13.478</v>
+        <v>12.62</v>
       </c>
       <c r="O25" s="2">
-        <v>15.266000000000002</v>
+        <v>14.094999999999999</v>
       </c>
       <c r="P25" s="2">
-        <v>11.822000000000001</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
         <v>11.648</v>
@@ -1472,7 +1490,7 @@
         <v>12.175999999999998</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2">
         <v>16.996000000000002</v>
@@ -1487,27 +1505,27 @@
         <v>16.178000000000001</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M26" s="2">
-        <v>11.614000000000001</v>
+        <v>15.766</v>
       </c>
       <c r="N26" s="2">
-        <v>13.751999999999999</v>
+        <v>15.520000000000001</v>
       </c>
       <c r="O26" s="2">
-        <v>14.331999999999999</v>
+        <v>14.362</v>
       </c>
       <c r="P26" s="2">
-        <v>14.348000000000003</v>
+        <v>14.646666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
         <v>15.156000000000001</v>
@@ -1522,7 +1540,7 @@
         <v>16.026000000000003</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2">
         <v>18.574000000000002</v>
@@ -1537,24 +1555,27 @@
         <v>18.161999999999999</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M27" s="2">
-        <v>17.201999999999998</v>
+        <v>17.742000000000001</v>
       </c>
       <c r="N27" s="2">
-        <v>17.238000000000003</v>
+        <v>17.744</v>
       </c>
       <c r="O27" s="2">
-        <v>17.714000000000002</v>
+        <v>17.985999999999997</v>
       </c>
       <c r="P27" s="2">
-        <v>18.57</v>
+        <v>18.341666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -1568,12 +1589,12 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -1623,7 +1644,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2">
         <v>46.993999999999993</v>
@@ -1673,10 +1694,10 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
         <v>47.02</v>
@@ -1691,7 +1712,7 @@
         <v>46.725000000000001</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38" s="2">
         <v>63.98</v>
@@ -1706,7 +1727,7 @@
         <v>63.09</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M38" s="2">
         <v>55.06</v>
@@ -1723,10 +1744,10 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="2">
         <v>48.655000000000001</v>
@@ -1741,7 +1762,7 @@
         <v>45.835000000000001</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H39" s="2">
         <v>63.69</v>
@@ -1756,7 +1777,7 @@
         <v>63.615000000000002</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M39" s="2">
         <v>53.57</v>
@@ -1773,10 +1794,10 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
         <v>47.32</v>
@@ -1791,7 +1812,7 @@
         <v>46.355000000000004</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40" s="2">
         <v>64.290000000000006</v>
@@ -1806,7 +1827,7 @@
         <v>63.84</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M40" s="2">
         <v>54.015000000000001</v>
@@ -1823,10 +1844,10 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2">
         <v>48.44</v>
@@ -1841,7 +1862,7 @@
         <v>46.95</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H41" s="2">
         <v>64.430000000000007</v>
@@ -1856,7 +1877,7 @@
         <v>62.35</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M41" s="2">
         <v>51.93</v>
@@ -1873,10 +1894,10 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2">
         <v>46.73</v>
@@ -1891,7 +1912,7 @@
         <v>46.355000000000004</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H42" s="2">
         <v>64.36</v>
@@ -1906,7 +1927,7 @@
         <v>61.31</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M42" s="2">
         <v>53.644999999999996</v>
@@ -1923,10 +1944,10 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2">
         <v>49.11</v>
@@ -1941,7 +1962,7 @@
         <v>45.91</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43" s="2">
         <v>63.39</v>
@@ -1956,7 +1977,7 @@
         <v>64.87</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M43" s="2">
         <v>54.02</v>
@@ -1973,10 +1994,10 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="2">
         <v>50.238</v>
@@ -1991,7 +2012,7 @@
         <v>49.4</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2">
         <v>65.627499999999998</v>
@@ -2006,7 +2027,7 @@
         <v>65.33</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M44" s="2">
         <v>56.93399999999999</v>
@@ -2023,7 +2044,10 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -2037,12 +2061,12 @@
         <v>2</v>
       </c>
       <c r="L50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -2092,13 +2116,13 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="2">
         <v>44.699999999999996</v>
       </c>
       <c r="C52" s="2">
-        <v>44.623333333333335</v>
+        <v>43.284999999999997</v>
       </c>
       <c r="D52" s="2">
         <v>45.052</v>
@@ -2142,49 +2166,49 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="2">
         <v>42.71</v>
       </c>
       <c r="D53" s="2">
-        <v>46.04</v>
+        <v>46.076666666666675</v>
       </c>
       <c r="E53" s="2">
-        <v>46.27</v>
+        <v>44.605000000000004</v>
       </c>
       <c r="F53" s="2">
-        <v>43.97</v>
+        <v>45.174999999999997</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H53" s="2">
-        <v>46.84</v>
+        <v>46.46</v>
       </c>
       <c r="I53" s="2">
-        <v>46.730000000000004</v>
+        <v>46.156666666666666</v>
       </c>
       <c r="J53" s="2">
-        <v>47.98</v>
+        <v>46.894999999999996</v>
       </c>
       <c r="K53" s="2">
-        <v>45.656666666666666</v>
+        <v>46.153999999999996</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M53" s="2">
-        <v>53.734999999999999</v>
+        <v>51.092500000000001</v>
       </c>
       <c r="N53" s="2">
-        <v>52.12</v>
+        <v>49.79</v>
       </c>
       <c r="O53" s="2">
-        <v>53.04</v>
+        <v>53.5</v>
       </c>
       <c r="P53" s="2">
         <v>51.66</v>
@@ -2192,281 +2216,281 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" s="2">
-        <v>42.82</v>
+        <v>43.283333333333331</v>
       </c>
       <c r="D54" s="2">
-        <v>45.004999999999995</v>
+        <v>44.832500000000003</v>
       </c>
       <c r="E54" s="2">
-        <v>44.66</v>
+        <v>44.506666666666661</v>
       </c>
       <c r="F54" s="2">
-        <v>45.24</v>
+        <v>45.064999999999998</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H54" s="2">
-        <v>44.26</v>
+        <v>44.717500000000001</v>
       </c>
       <c r="I54" s="2">
-        <v>47.53</v>
+        <v>47.34</v>
       </c>
       <c r="J54" s="2">
-        <v>46.96</v>
+        <v>45.616666666666674</v>
       </c>
       <c r="K54" s="2">
-        <v>47.42</v>
+        <v>46.806666666666672</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M54" s="2">
-        <v>53.39</v>
+        <v>52.393333333333338</v>
       </c>
       <c r="N54" s="2">
-        <v>52.583333333333336</v>
+        <v>52.262</v>
       </c>
       <c r="O54" s="2">
-        <v>52.24</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="P54" s="2">
-        <v>53.73</v>
+        <v>53.33</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" s="2">
-        <v>45.25</v>
+        <v>44.795000000000002</v>
       </c>
       <c r="D55" s="2">
-        <v>44.776666666666664</v>
+        <v>43.995999999999995</v>
       </c>
       <c r="E55" s="2">
-        <v>46.5</v>
+        <v>45.004999999999995</v>
       </c>
       <c r="F55" s="2">
         <v>42.72</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H55" s="2">
-        <v>47.63</v>
+        <v>47.527500000000003</v>
       </c>
       <c r="I55" s="2">
-        <v>47.99</v>
+        <v>46.67</v>
       </c>
       <c r="J55" s="2">
-        <v>43.28</v>
+        <v>43.97</v>
       </c>
       <c r="K55" s="2">
-        <v>47.65</v>
+        <v>46.070000000000007</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M55" s="2">
-        <v>51.55</v>
+        <v>53.043333333333329</v>
       </c>
       <c r="N55" s="2">
         <v>50.06</v>
       </c>
       <c r="O55" s="2">
-        <v>51.66</v>
+        <v>50.34</v>
       </c>
       <c r="P55" s="2">
-        <v>50.63</v>
+        <v>51.144999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" s="2">
-        <v>46.27</v>
+        <v>45.924999999999997</v>
       </c>
       <c r="D56" s="2">
-        <v>44.2</v>
+        <v>44.085000000000001</v>
       </c>
       <c r="E56" s="2">
-        <v>45.01</v>
+        <v>43.629999999999995</v>
       </c>
       <c r="F56" s="2">
-        <v>45.58</v>
+        <v>45.519999999999996</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H56" s="2">
-        <v>47.53</v>
+        <v>46.495000000000005</v>
       </c>
       <c r="I56" s="2">
-        <v>45.69</v>
+        <v>46.209999999999994</v>
       </c>
       <c r="J56" s="2">
-        <v>46.61</v>
+        <v>46.69</v>
       </c>
       <c r="K56" s="2">
-        <v>45.58</v>
+        <v>45.434999999999995</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M56" s="2">
-        <v>51.379999999999995</v>
+        <v>52.356666666666662</v>
       </c>
       <c r="N56" s="2">
-        <v>50.4</v>
+        <v>51.894999999999996</v>
       </c>
       <c r="O56" s="2">
-        <v>50.86</v>
+        <v>51.626666666666665</v>
       </c>
       <c r="P56" s="2">
-        <v>49.02</v>
+        <v>50.915000000000006</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" s="2">
-        <v>42.94</v>
+        <v>43.57</v>
       </c>
       <c r="D57" s="2">
-        <v>45.92</v>
+        <v>46.150000000000006</v>
       </c>
       <c r="E57" s="2">
-        <v>45.46</v>
+        <v>44.775000000000006</v>
       </c>
       <c r="F57" s="2">
-        <v>46.61</v>
+        <v>46.034999999999997</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H57" s="2">
-        <v>46.96</v>
+        <v>46.383333333333333</v>
       </c>
       <c r="I57" s="2">
-        <v>46.74</v>
+        <v>47.195</v>
       </c>
       <c r="J57" s="2">
-        <v>47.42</v>
+        <v>46.844999999999999</v>
       </c>
       <c r="K57" s="2">
-        <v>46.38</v>
+        <v>45.31</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M57" s="2">
-        <v>53.62</v>
+        <v>51.38</v>
       </c>
       <c r="N57" s="2">
-        <v>50.17</v>
+        <v>51.433333333333337</v>
       </c>
       <c r="O57" s="2">
-        <v>51.56</v>
+        <v>51.385000000000005</v>
       </c>
       <c r="P57" s="2">
-        <v>53.5</v>
+        <v>53.155000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" s="2">
-        <v>45.465000000000003</v>
+        <v>45.313333333333333</v>
       </c>
       <c r="D58" s="2">
-        <v>45.27</v>
+        <v>45.365000000000002</v>
       </c>
       <c r="E58" s="2">
+        <v>44.776666666666664</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45.06</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="2">
+        <v>46.19</v>
+      </c>
+      <c r="I58" s="2">
+        <v>45.233333333333327</v>
+      </c>
+      <c r="J58" s="2">
+        <v>45.160000000000004</v>
+      </c>
+      <c r="K58" s="2">
         <v>45.81</v>
       </c>
-      <c r="F58" s="2">
-        <v>45.92</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="2">
-        <v>46.265000000000001</v>
-      </c>
-      <c r="I58" s="2">
-        <v>45.06</v>
-      </c>
-      <c r="J58" s="2">
-        <v>41.56</v>
-      </c>
-      <c r="K58" s="2">
-        <v>45.733333333333341</v>
-      </c>
       <c r="L58" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M58" s="2">
         <v>53.85</v>
       </c>
       <c r="N58" s="2">
-        <v>52.36</v>
+        <v>51.954999999999998</v>
       </c>
       <c r="O58" s="2">
-        <v>52.414999999999999</v>
+        <v>50.903333333333336</v>
       </c>
       <c r="P58" s="2">
-        <v>52.24</v>
+        <v>52.64</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" s="2">
         <v>47.117999999999995</v>
       </c>
       <c r="D59" s="2">
-        <v>47.534999999999997</v>
+        <v>49.139999999999993</v>
       </c>
       <c r="E59" s="2">
-        <v>48.106000000000009</v>
+        <v>48.176000000000002</v>
       </c>
       <c r="F59" s="2">
         <v>47.67</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H59" s="2">
-        <v>49.480000000000004</v>
+        <v>49.824999999999996</v>
       </c>
       <c r="I59" s="2">
-        <v>50.403333333333336</v>
+        <v>50.287500000000001</v>
       </c>
       <c r="J59" s="2">
         <v>49.673333333333325</v>
@@ -2475,24 +2499,25 @@
         <v>49.874000000000002</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M59" s="2">
-        <v>56.917499999999997</v>
+        <v>56.694000000000003</v>
       </c>
       <c r="N59" s="2">
-        <v>54.694000000000003</v>
+        <v>55.015999999999998</v>
       </c>
       <c r="O59" s="2">
-        <v>55.836666666666666</v>
+        <v>55.454999999999998</v>
       </c>
       <c r="P59" s="2">
-        <v>54.825000000000003</v>
+        <v>54.91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2500,302 +2525,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21146D01-C3C9-944F-82F4-9D1141677A25}">
   <dimension ref="A1:AT29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AM36" sqref="AM36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:46">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:46">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="6" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="8"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="11"/>
     </row>
     <row r="4" spans="1:46">
       <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9">
         <v>0.8</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6">
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9">
         <v>0.6</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6">
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="9">
         <v>0.4</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="6">
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9">
         <v>0.2</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="6">
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="9">
         <v>1</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="6">
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="9">
         <v>0.8</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="6">
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="9">
         <v>0.6</v>
       </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="6">
+      <c r="X4" s="10"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="9">
         <v>0.4</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="6">
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="9">
         <v>0.2</v>
       </c>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="6">
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="9">
         <v>1</v>
       </c>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="6">
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="9">
         <v>0.8</v>
       </c>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="6">
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="9">
         <v>0.6</v>
       </c>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="6">
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="9">
         <v>0.4</v>
       </c>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="6">
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="9">
         <v>0.2</v>
       </c>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="8"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="11"/>
     </row>
     <row r="5" spans="1:46">
       <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>16.745999999999999</v>
       </c>
       <c r="C6" s="5">
-        <v>9.3000000000000007</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="D6" s="5">
         <v>78.875</v>
@@ -2804,7 +2832,7 @@
         <v>17.122</v>
       </c>
       <c r="F6" s="5">
-        <v>9.3949999999999996</v>
+        <v>9.4730000000000008</v>
       </c>
       <c r="G6" s="5">
         <v>88.8125</v>
@@ -2813,7 +2841,7 @@
         <v>15.86</v>
       </c>
       <c r="I6" s="5">
-        <v>9.952</v>
+        <v>9.2929999999999993</v>
       </c>
       <c r="J6" s="5">
         <v>54.052</v>
@@ -2822,7 +2850,7 @@
         <v>17.058</v>
       </c>
       <c r="L6" s="5">
-        <v>9.4425000000000008</v>
+        <v>9.4550000000000001</v>
       </c>
       <c r="M6" s="5">
         <v>87.137500000000003</v>
@@ -2831,7 +2859,7 @@
         <v>17.486000000000001</v>
       </c>
       <c r="O6" s="5">
-        <v>10.49</v>
+        <v>9.8889999999999993</v>
       </c>
       <c r="P6" s="5">
         <v>75.545000000000002</v>
@@ -2840,96 +2868,96 @@
         <v>14.736000000000001</v>
       </c>
       <c r="R6" s="5">
-        <v>10.164999999999999</v>
+        <v>8.843</v>
       </c>
       <c r="S6" s="5">
         <v>44.227499999999999</v>
       </c>
-      <c r="T6" s="5">
-        <v>13.27</v>
-      </c>
-      <c r="U6" s="5">
-        <v>8.3625000000000007</v>
-      </c>
-      <c r="V6" s="5">
+      <c r="T6" s="13">
+        <v>14.84</v>
+      </c>
+      <c r="U6" s="13">
+        <v>8.5419999999999998</v>
+      </c>
+      <c r="V6" s="13">
         <v>56.454999999999998</v>
       </c>
-      <c r="W6" s="5">
-        <v>16.262</v>
-      </c>
-      <c r="X6" s="5">
-        <v>9.1925000000000008</v>
-      </c>
-      <c r="Y6" s="5">
+      <c r="W6" s="13">
+        <v>16.79</v>
+      </c>
+      <c r="X6" s="13">
+        <v>9.3559999999999999</v>
+      </c>
+      <c r="Y6" s="13">
         <v>81.709999999999994</v>
       </c>
-      <c r="Z6" s="5">
-        <v>15.018000000000001</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>9.94</v>
-      </c>
-      <c r="AB6" s="5">
+      <c r="Z6" s="13">
+        <v>15.76</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>9.6150000000000002</v>
+      </c>
+      <c r="AB6" s="13">
         <v>43.6666666666667</v>
       </c>
       <c r="AC6" s="5">
         <v>16.622</v>
       </c>
       <c r="AD6" s="5">
-        <v>9.25</v>
+        <v>9.2249999999999996</v>
       </c>
       <c r="AE6" s="5">
         <v>83.736666666666693</v>
       </c>
       <c r="AF6" s="5">
-        <v>23.167999999999999</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>22.9025</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>33.58</v>
+        <v>15.02</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>8.6157000000000004</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>58.521799999999999</v>
       </c>
       <c r="AI6" s="5">
-        <v>23.353999999999999</v>
-      </c>
-      <c r="AJ6" s="5">
-        <v>17.212499999999999</v>
-      </c>
-      <c r="AK6" s="5">
-        <v>58.835000000000001</v>
+        <v>14.31</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>8.2082999999999995</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>55.755499999999998</v>
       </c>
       <c r="AL6" s="5">
-        <v>23.847999999999999</v>
+        <v>16.18</v>
       </c>
       <c r="AM6" s="5">
-        <v>16.295000000000002</v>
+        <v>9.3793000000000006</v>
       </c>
       <c r="AN6" s="5">
-        <v>61.022500000000001</v>
+        <v>63.041499999999999</v>
       </c>
       <c r="AO6" s="5">
-        <v>24.771999999999998</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AP6" s="5">
-        <v>18.797499999999999</v>
+        <v>9.2350999999999992</v>
       </c>
       <c r="AQ6" s="5">
-        <v>55.3675</v>
+        <v>62.729799999999997</v>
       </c>
       <c r="AR6" s="5">
-        <v>22.632000000000001</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="AS6" s="5">
-        <v>31.552499999999998</v>
+        <v>10.0038</v>
       </c>
       <c r="AT6" s="5">
-        <v>18.6525</v>
+        <v>67.950800000000001</v>
       </c>
     </row>
     <row r="7" spans="1:46">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2938,7 +2966,7 @@
         <v>15.928000000000001</v>
       </c>
       <c r="F7" s="5">
-        <v>9.2475000000000005</v>
+        <v>9.1140000000000008</v>
       </c>
       <c r="G7" s="5">
         <v>63.147500000000001</v>
@@ -2947,7 +2975,7 @@
         <v>16.538</v>
       </c>
       <c r="I7" s="5">
-        <v>9.5024999999999995</v>
+        <v>9.33</v>
       </c>
       <c r="J7" s="5">
         <v>72.765000000000001</v>
@@ -2956,7 +2984,7 @@
         <v>16.213999999999999</v>
       </c>
       <c r="L7" s="5">
-        <v>9.3025000000000002</v>
+        <v>9.2910000000000004</v>
       </c>
       <c r="M7" s="5">
         <v>63.467500000000001</v>
@@ -2965,7 +2993,7 @@
         <v>16.126000000000001</v>
       </c>
       <c r="O7" s="5">
-        <v>10.265000000000001</v>
+        <v>9.2279999999999998</v>
       </c>
       <c r="P7" s="5">
         <v>63.945</v>
@@ -2977,7 +3005,7 @@
         <v>15.538</v>
       </c>
       <c r="U7" s="5">
-        <v>8.6575000000000006</v>
+        <v>8.7944999999999993</v>
       </c>
       <c r="V7" s="5">
         <v>66.694999999999993</v>
@@ -2986,7 +3014,7 @@
         <v>13.545999999999999</v>
       </c>
       <c r="X7" s="5">
-        <v>9.7349999999999994</v>
+        <v>8.3841000000000001</v>
       </c>
       <c r="Y7" s="5">
         <v>35.295000000000002</v>
@@ -2995,7 +3023,7 @@
         <v>13.946</v>
       </c>
       <c r="AA7" s="5">
-        <v>12.565</v>
+        <v>9.3557000000000006</v>
       </c>
       <c r="AB7" s="5">
         <v>27.412500000000001</v>
@@ -3010,48 +3038,48 @@
         <v>66.482500000000002</v>
       </c>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
       <c r="AI7" s="5">
-        <v>23.51</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>20.927499999999998</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>44.284999999999997</v>
+        <v>16.66</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>9.8476999999999997</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>54.045299999999997</v>
       </c>
       <c r="AL7" s="5">
-        <v>26.1</v>
+        <v>11.34</v>
       </c>
       <c r="AM7" s="5">
-        <v>22.53</v>
+        <v>6.2131999999999996</v>
       </c>
       <c r="AN7" s="5">
-        <v>36.667499999999997</v>
+        <v>36.787100000000002</v>
       </c>
       <c r="AO7" s="5">
-        <v>22.085999999999999</v>
+        <v>14.78</v>
       </c>
       <c r="AP7" s="5">
-        <v>22.766666666666701</v>
+        <v>8.7364999999999995</v>
       </c>
       <c r="AQ7" s="5">
-        <v>38.016666666666701</v>
+        <v>47.9465</v>
       </c>
       <c r="AR7" s="5">
-        <v>21.728000000000002</v>
+        <v>16.37</v>
       </c>
       <c r="AS7" s="5">
-        <v>26.326000000000001</v>
+        <v>9.6766000000000005</v>
       </c>
       <c r="AT7" s="5">
-        <v>26.442</v>
+        <v>53.104500000000002</v>
       </c>
     </row>
     <row r="8" spans="1:46">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3060,7 +3088,7 @@
         <v>17.004000000000001</v>
       </c>
       <c r="F8" s="5">
-        <v>9.3925000000000001</v>
+        <v>9.34</v>
       </c>
       <c r="G8" s="5">
         <v>94.405000000000001</v>
@@ -3069,7 +3097,7 @@
         <v>17.28</v>
       </c>
       <c r="I8" s="5">
-        <v>9.61</v>
+        <v>9.5229999999999997</v>
       </c>
       <c r="J8" s="5">
         <v>93.155000000000001</v>
@@ -3078,7 +3106,7 @@
         <v>17.515999999999998</v>
       </c>
       <c r="L8" s="5">
-        <v>10.154999999999999</v>
+        <v>9.859</v>
       </c>
       <c r="M8" s="5">
         <v>78.572500000000005</v>
@@ -3099,7 +3127,7 @@
         <v>14.676</v>
       </c>
       <c r="U8" s="5">
-        <v>9.4224999999999994</v>
+        <v>8.2967999999999993</v>
       </c>
       <c r="V8" s="5">
         <v>63.647500000000001</v>
@@ -3108,7 +3136,7 @@
         <v>16.058</v>
       </c>
       <c r="X8" s="5">
-        <v>12.03</v>
+        <v>9.6686999999999994</v>
       </c>
       <c r="Y8" s="5">
         <v>47.38</v>
@@ -3117,7 +3145,7 @@
         <v>14.622</v>
       </c>
       <c r="AA8" s="5">
-        <v>9.1875</v>
+        <v>8.3201000000000001</v>
       </c>
       <c r="AB8" s="5">
         <v>60.207500000000003</v>
@@ -3126,54 +3154,54 @@
         <v>16.134</v>
       </c>
       <c r="AD8" s="5">
-        <v>9.4250000000000007</v>
+        <v>9.43</v>
       </c>
       <c r="AE8" s="5">
         <v>68.847499999999997</v>
       </c>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
       <c r="AI8" s="5">
-        <v>23.788</v>
-      </c>
-      <c r="AJ8" s="5">
-        <v>24.63</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>34.512500000000003</v>
+        <v>16.55</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>9.4854000000000003</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>64.846199999999996</v>
       </c>
       <c r="AL8" s="5">
-        <v>26.588000000000001</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="AM8" s="5">
-        <v>20.072500000000002</v>
+        <v>9.4625000000000004</v>
       </c>
       <c r="AN8" s="5">
-        <v>47.164999999999999</v>
+        <v>64.689499999999995</v>
       </c>
       <c r="AO8" s="5">
-        <v>23.498000000000001</v>
+        <v>14.27</v>
       </c>
       <c r="AP8" s="5">
-        <v>20.335000000000001</v>
+        <v>8.1786999999999992</v>
       </c>
       <c r="AQ8" s="5">
-        <v>41.887500000000003</v>
+        <v>55.912700000000001</v>
       </c>
       <c r="AR8" s="5">
-        <v>25.704000000000001</v>
+        <v>14.74</v>
       </c>
       <c r="AS8" s="5">
-        <v>22.177499999999998</v>
+        <v>8.4481000000000002</v>
       </c>
       <c r="AT8" s="5">
-        <v>36.79</v>
+        <v>57.754199999999997</v>
       </c>
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3182,7 +3210,7 @@
         <v>17.306000000000001</v>
       </c>
       <c r="F9" s="5">
-        <v>9.6624999999999996</v>
+        <v>9.5990000000000002</v>
       </c>
       <c r="G9" s="5">
         <v>87.935000000000002</v>
@@ -3191,7 +3219,7 @@
         <v>16.818000000000001</v>
       </c>
       <c r="I9" s="5">
-        <v>9.2624999999999993</v>
+        <v>9.2901000000000007</v>
       </c>
       <c r="J9" s="5">
         <v>88.765000000000001</v>
@@ -3200,7 +3228,7 @@
         <v>17.352</v>
       </c>
       <c r="L9" s="5">
-        <v>9.1950000000000003</v>
+        <v>9.5280000000000005</v>
       </c>
       <c r="M9" s="5">
         <v>96.89</v>
@@ -3209,7 +3237,7 @@
         <v>16.802</v>
       </c>
       <c r="O9" s="5">
-        <v>9.89</v>
+        <v>9.3712999999999997</v>
       </c>
       <c r="P9" s="5">
         <v>81.037999999999997</v>
@@ -3221,7 +3249,7 @@
         <v>15.736000000000001</v>
       </c>
       <c r="U9" s="5">
-        <v>10.7475</v>
+        <v>9.6777999999999995</v>
       </c>
       <c r="V9" s="5">
         <v>42.127499999999998</v>
@@ -3230,7 +3258,7 @@
         <v>15.426</v>
       </c>
       <c r="X9" s="5">
-        <v>10.375</v>
+        <v>9.1180000000000003</v>
       </c>
       <c r="Y9" s="5">
         <v>50.134999999999998</v>
@@ -3239,7 +3267,7 @@
         <v>15.112</v>
       </c>
       <c r="AA9" s="5">
-        <v>9.3699999999999992</v>
+        <v>8.3986999999999998</v>
       </c>
       <c r="AB9" s="5">
         <v>75.209999999999994</v>
@@ -3254,48 +3282,48 @@
         <v>78.892499999999998</v>
       </c>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
       <c r="AI9" s="5">
-        <v>25.632000000000001</v>
-      </c>
-      <c r="AJ9" s="5">
-        <v>22.45</v>
-      </c>
-      <c r="AK9" s="5">
-        <v>39.049999999999997</v>
+        <v>14.21</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>8.1385000000000005</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>55.9499</v>
       </c>
       <c r="AL9" s="5">
-        <v>26.552</v>
+        <v>15.13</v>
       </c>
       <c r="AM9" s="5">
-        <v>19.122499999999999</v>
+        <v>8.6654999999999998</v>
       </c>
       <c r="AN9" s="5">
-        <v>49.365000000000002</v>
+        <v>59.572299999999998</v>
       </c>
       <c r="AO9" s="5">
-        <v>25.936</v>
+        <v>14.82</v>
       </c>
       <c r="AP9" s="5">
-        <v>20.837499999999999</v>
+        <v>8.4878999999999998</v>
       </c>
       <c r="AQ9" s="5">
-        <v>43.155000000000001</v>
+        <v>58.351700000000001</v>
       </c>
       <c r="AR9" s="5">
-        <v>23.556000000000001</v>
+        <v>16.18</v>
       </c>
       <c r="AS9" s="5">
-        <v>21.267499999999998</v>
+        <v>9.2667000000000002</v>
       </c>
       <c r="AT9" s="5">
-        <v>42.13</v>
+        <v>63.706499999999998</v>
       </c>
     </row>
     <row r="10" spans="1:46">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3304,7 +3332,7 @@
         <v>16.948</v>
       </c>
       <c r="F10" s="5">
-        <v>10.885</v>
+        <v>9.86</v>
       </c>
       <c r="G10" s="5">
         <v>60.314999999999998</v>
@@ -3313,7 +3341,7 @@
         <v>16.696000000000002</v>
       </c>
       <c r="I10" s="5">
-        <v>9.0933333333333302</v>
+        <v>9.2149999999999999</v>
       </c>
       <c r="J10" s="5">
         <v>88.92</v>
@@ -3322,7 +3350,7 @@
         <v>17.146000000000001</v>
       </c>
       <c r="L10" s="5">
-        <v>9.27</v>
+        <v>9.5020000000000007</v>
       </c>
       <c r="M10" s="5">
         <v>87.853333333333296</v>
@@ -3331,7 +3359,7 @@
         <v>16.716000000000001</v>
       </c>
       <c r="O10" s="5">
-        <v>9.1575000000000006</v>
+        <v>9.1690000000000005</v>
       </c>
       <c r="P10" s="5">
         <v>94.737499999999997</v>
@@ -3343,7 +3371,7 @@
         <v>15.864000000000001</v>
       </c>
       <c r="U10" s="5">
-        <v>11.8</v>
+        <v>10.340299999999999</v>
       </c>
       <c r="V10" s="5">
         <v>34.015000000000001</v>
@@ -3352,7 +3380,7 @@
         <v>16.196000000000002</v>
       </c>
       <c r="X10" s="5">
-        <v>10.4266666666667</v>
+        <v>9.3323</v>
       </c>
       <c r="Y10" s="5">
         <v>61.336666666666702</v>
@@ -3361,7 +3389,7 @@
         <v>14.964</v>
       </c>
       <c r="AA10" s="5">
-        <v>11.272500000000001</v>
+        <v>8.5604999999999993</v>
       </c>
       <c r="AB10" s="5">
         <v>59.2575</v>
@@ -3376,48 +3404,48 @@
         <v>58.366666666666703</v>
       </c>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
       <c r="AI10" s="5">
-        <v>24.187999999999999</v>
-      </c>
-      <c r="AJ10" s="5">
-        <v>28.0966666666667</v>
-      </c>
-      <c r="AK10" s="5">
-        <v>18.113333333333301</v>
+        <v>16.45</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>9.6372</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>56.130600000000001</v>
       </c>
       <c r="AL10" s="5">
-        <v>25.687999999999999</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="AM10" s="5">
-        <v>19.22</v>
+        <v>9.4454999999999991</v>
       </c>
       <c r="AN10" s="5">
-        <v>47.966666666666697</v>
+        <v>55.175199999999997</v>
       </c>
       <c r="AO10" s="5">
-        <v>24.841999999999999</v>
+        <v>16.43</v>
       </c>
       <c r="AP10" s="5">
-        <v>20.1325</v>
+        <v>9.6255000000000006</v>
       </c>
       <c r="AQ10" s="5">
-        <v>46.547499999999999</v>
+        <v>56.062399999999997</v>
       </c>
       <c r="AR10" s="5">
-        <v>23.556000000000001</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="AS10" s="5">
-        <v>21.267499999999998</v>
+        <v>10.299099999999999</v>
       </c>
       <c r="AT10" s="5">
-        <v>42.13</v>
+        <v>59.986400000000003</v>
       </c>
     </row>
     <row r="11" spans="1:46">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3426,7 +3454,7 @@
         <v>17.48</v>
       </c>
       <c r="F11" s="5">
-        <v>9.4550000000000001</v>
+        <v>9.6089000000000002</v>
       </c>
       <c r="G11" s="5">
         <v>96.652500000000003</v>
@@ -3435,7 +3463,7 @@
         <v>16.238</v>
       </c>
       <c r="I11" s="5">
-        <v>9.4725000000000001</v>
+        <v>9.4769000000000005</v>
       </c>
       <c r="J11" s="5">
         <v>56.71</v>
@@ -3444,7 +3472,7 @@
         <v>17.440000000000001</v>
       </c>
       <c r="L11" s="5">
-        <v>9.3874999999999993</v>
+        <v>9.6411999999999995</v>
       </c>
       <c r="M11" s="5">
         <v>91.254999999999995</v>
@@ -3453,7 +3481,7 @@
         <v>17.353999999999999</v>
       </c>
       <c r="O11" s="5">
-        <v>12.1</v>
+        <v>9.8759999999999994</v>
       </c>
       <c r="P11" s="5">
         <v>71.305000000000007</v>
@@ -3465,7 +3493,7 @@
         <v>15.644</v>
       </c>
       <c r="U11" s="5">
-        <v>8.8049999999999997</v>
+        <v>8.8345000000000002</v>
       </c>
       <c r="V11" s="5">
         <v>68.094999999999999</v>
@@ -3474,7 +3502,7 @@
         <v>14.94</v>
       </c>
       <c r="X11" s="5">
-        <v>8.6475000000000009</v>
+        <v>8.6270000000000007</v>
       </c>
       <c r="Y11" s="5">
         <v>55.7</v>
@@ -3483,7 +3511,7 @@
         <v>16.052</v>
       </c>
       <c r="AA11" s="5">
-        <v>8.8825000000000003</v>
+        <v>8.9496000000000002</v>
       </c>
       <c r="AB11" s="5">
         <v>77.682500000000005</v>
@@ -3498,48 +3526,48 @@
         <v>70.807500000000005</v>
       </c>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
       <c r="AI11" s="5">
-        <v>20.268000000000001</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>31.6875</v>
-      </c>
-      <c r="AK11" s="5">
-        <v>13.705</v>
+        <v>14.77</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>8.3694000000000006</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>62.785800000000002</v>
       </c>
       <c r="AL11" s="5">
-        <v>17.094000000000001</v>
+        <v>14.32</v>
       </c>
       <c r="AM11" s="5">
-        <v>32.177500000000002</v>
+        <v>8.1144999999999996</v>
       </c>
       <c r="AN11" s="5">
-        <v>10.8575</v>
+        <v>60.872900000000001</v>
       </c>
       <c r="AO11" s="5">
-        <v>21.31</v>
+        <v>11.67</v>
       </c>
       <c r="AP11" s="5">
-        <v>29.855</v>
+        <v>6.6128</v>
       </c>
       <c r="AQ11" s="5">
-        <v>17.627500000000001</v>
+        <v>49.607999999999997</v>
       </c>
       <c r="AR11" s="5">
-        <v>15.742000000000001</v>
+        <v>13.9</v>
       </c>
       <c r="AS11" s="5">
-        <v>34.606666666666698</v>
+        <v>7.8764000000000003</v>
       </c>
       <c r="AT11" s="5">
-        <v>9.93</v>
+        <v>59.087499999999999</v>
       </c>
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3548,7 +3576,7 @@
         <v>17.053999999999998</v>
       </c>
       <c r="F12" s="5">
-        <v>9.6274999999999995</v>
+        <v>9.4847999999999999</v>
       </c>
       <c r="G12" s="5">
         <v>84.242500000000007</v>
@@ -3557,7 +3585,7 @@
         <v>16.603999999999999</v>
       </c>
       <c r="I12" s="5">
-        <v>9.4120000000000008</v>
+        <v>9.2528000000000006</v>
       </c>
       <c r="J12" s="5">
         <v>80.602000000000004</v>
@@ -3566,7 +3594,7 @@
         <v>17.486000000000001</v>
       </c>
       <c r="L12" s="5">
-        <v>12.1525</v>
+        <v>9.8727999999999998</v>
       </c>
       <c r="M12" s="5">
         <v>76.552499999999995</v>
@@ -3575,7 +3603,7 @@
         <v>16.334</v>
       </c>
       <c r="O12" s="5">
-        <v>9.0875000000000004</v>
+        <v>9.1316000000000006</v>
       </c>
       <c r="P12" s="5">
         <v>77.127499999999998</v>
@@ -3587,7 +3615,7 @@
         <v>14.974</v>
       </c>
       <c r="U12" s="5">
-        <v>8.9433333333333298</v>
+        <v>8.9876000000000005</v>
       </c>
       <c r="V12" s="5">
         <v>44.77</v>
@@ -3596,7 +3624,7 @@
         <v>15.676</v>
       </c>
       <c r="X12" s="5">
-        <v>9.69</v>
+        <v>8.9084000000000003</v>
       </c>
       <c r="Y12" s="5">
         <v>65.367500000000007</v>
@@ -3605,7 +3633,7 @@
         <v>14.837999999999999</v>
       </c>
       <c r="AA12" s="5">
-        <v>8.2125000000000004</v>
+        <v>8.3376000000000001</v>
       </c>
       <c r="AB12" s="5">
         <v>67.415000000000006</v>
@@ -3620,48 +3648,48 @@
         <v>66.072500000000005</v>
       </c>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
       <c r="AI12" s="5">
-        <v>24.021999999999998</v>
-      </c>
-      <c r="AJ12" s="5">
-        <v>27.114999999999998</v>
-      </c>
-      <c r="AK12" s="5">
-        <v>19.63</v>
+        <v>14.7</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>8.4128000000000007</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>58.183199999999999</v>
       </c>
       <c r="AL12" s="5">
-        <v>26.408000000000001</v>
+        <v>14.79</v>
       </c>
       <c r="AM12" s="5">
-        <v>21.88</v>
+        <v>8.4641999999999999</v>
       </c>
       <c r="AN12" s="5">
-        <v>39.67</v>
+        <v>58.539400000000001</v>
       </c>
       <c r="AO12" s="5">
-        <v>22.004000000000001</v>
+        <v>13.96</v>
       </c>
       <c r="AP12" s="5">
-        <v>21.54</v>
+        <v>7.9893000000000001</v>
       </c>
       <c r="AQ12" s="5">
-        <v>48.674999999999997</v>
+        <v>55.254199999999997</v>
       </c>
       <c r="AR12" s="5">
-        <v>21.416</v>
+        <v>14.02</v>
       </c>
       <c r="AS12" s="5">
-        <v>18.809999999999999</v>
+        <v>8.0236000000000001</v>
       </c>
       <c r="AT12" s="5">
-        <v>54.902500000000003</v>
+        <v>55.491700000000002</v>
       </c>
     </row>
     <row r="13" spans="1:46">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3670,7 +3698,7 @@
         <v>20.59</v>
       </c>
       <c r="F13" s="5">
-        <v>11.977499999999999</v>
+        <v>12.1976</v>
       </c>
       <c r="G13" s="5">
         <v>66</v>
@@ -3679,7 +3707,7 @@
         <v>19.468</v>
       </c>
       <c r="I13" s="5">
-        <v>11.57</v>
+        <v>11.259399999999999</v>
       </c>
       <c r="J13" s="5">
         <v>71.894999999999996</v>
@@ -3688,7 +3716,7 @@
         <v>22.146000000000001</v>
       </c>
       <c r="L13" s="5">
-        <v>12.807499999999999</v>
+        <v>13.055300000000001</v>
       </c>
       <c r="M13" s="5">
         <v>73.012500000000003</v>
@@ -3697,7 +3725,7 @@
         <v>20.268000000000001</v>
       </c>
       <c r="O13" s="5">
-        <v>12.335000000000001</v>
+        <v>11.8414</v>
       </c>
       <c r="P13" s="5">
         <v>70.327500000000001</v>
@@ -3709,7 +3737,7 @@
         <v>17.803999999999998</v>
       </c>
       <c r="U13" s="5">
-        <v>10.2425</v>
+        <v>10.073700000000001</v>
       </c>
       <c r="V13" s="5">
         <v>76.387500000000003</v>
@@ -3718,7 +3746,7 @@
         <v>18.852</v>
       </c>
       <c r="X13" s="5">
-        <v>12.2</v>
+        <v>11.383599999999999</v>
       </c>
       <c r="Y13" s="5">
         <v>54.78</v>
@@ -3727,7 +3755,7 @@
         <v>18.257999999999999</v>
       </c>
       <c r="AA13" s="5">
-        <v>11.7425</v>
+        <v>10.68</v>
       </c>
       <c r="AB13" s="5">
         <v>62.907499999999999</v>
@@ -3736,1342 +3764,1337 @@
         <v>19.86</v>
       </c>
       <c r="AD13" s="5">
-        <v>12.0275</v>
+        <v>12.03</v>
       </c>
       <c r="AE13" s="5">
         <v>72.692499999999995</v>
       </c>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
       <c r="AI13" s="5">
-        <v>28.102</v>
-      </c>
-      <c r="AJ13" s="5">
-        <v>21.195</v>
-      </c>
-      <c r="AK13" s="5">
-        <v>42.912500000000001</v>
+        <v>23.1</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>13.4276</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>82.6</v>
       </c>
       <c r="AL13" s="5">
-        <v>28.885999999999999</v>
+        <v>22.31</v>
       </c>
       <c r="AM13" s="5">
-        <v>21.427499999999998</v>
+        <v>12.9682</v>
       </c>
       <c r="AN13" s="5">
-        <v>45.027500000000003</v>
+        <v>79.775199999999998</v>
       </c>
       <c r="AO13" s="5">
-        <v>28.228000000000002</v>
+        <v>24.66</v>
       </c>
       <c r="AP13" s="5">
-        <v>20.99</v>
+        <v>14.334300000000001</v>
       </c>
       <c r="AQ13" s="5">
-        <v>44.962499999999999</v>
+        <v>88.178200000000004</v>
       </c>
       <c r="AR13" s="5">
-        <v>28.106000000000002</v>
+        <v>21.04</v>
       </c>
       <c r="AS13" s="5">
-        <v>19.647500000000001</v>
+        <v>12.2303</v>
       </c>
       <c r="AT13" s="5">
-        <v>50.875</v>
+        <v>75.233900000000006</v>
       </c>
     </row>
     <row r="17" spans="1:46">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10" t="s">
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+    </row>
+    <row r="20" spans="1:46">
+      <c r="A20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-    </row>
-    <row r="20" spans="1:46">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12">
+        <v>1</v>
+      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+    </row>
+    <row r="21" spans="1:46">
+      <c r="A21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46">
+      <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10">
-        <v>1</v>
-      </c>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-    </row>
-    <row r="21" spans="1:46">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT21" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="8">
+        <v>11.827999999999999</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7.1977000000000002</v>
+      </c>
+      <c r="D22" s="8">
+        <v>33.185000000000002</v>
+      </c>
+      <c r="E22" s="8">
+        <v>11.946</v>
+      </c>
+      <c r="F22" s="8">
+        <v>6.7461000000000002</v>
+      </c>
+      <c r="G22" s="8">
+        <v>52.273333333333298</v>
+      </c>
+      <c r="H22" s="8">
+        <v>12.722</v>
+      </c>
+      <c r="I22" s="8">
+        <v>7.4580000000000002</v>
+      </c>
+      <c r="J22" s="8">
+        <v>43.183333333333302</v>
+      </c>
+      <c r="K22" s="8">
+        <v>9.91</v>
+      </c>
+      <c r="L22" s="8">
+        <v>5.9119999999999999</v>
+      </c>
+      <c r="M22" s="8">
+        <v>30.61</v>
+      </c>
+      <c r="N22" s="8">
+        <v>11.442</v>
+      </c>
+      <c r="O22" s="8">
+        <v>6.7270000000000003</v>
+      </c>
+      <c r="P22" s="8">
+        <v>38.196666666666701</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>15.638</v>
+      </c>
+      <c r="R22" s="8">
+        <v>9.5045999999999999</v>
+      </c>
+      <c r="S22" s="8">
+        <v>44.12</v>
+      </c>
+      <c r="T22" s="8">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="U22" s="8">
+        <v>9.4288000000000007</v>
+      </c>
+      <c r="V22" s="8">
+        <v>59.017499999999998</v>
+      </c>
+      <c r="W22" s="8">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="X22" s="8">
+        <v>9.5406999999999993</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>52.984999999999999</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>15.446</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>9.0425000000000004</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>53.017499999999998</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>14.124000000000001</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>9.3740000000000006</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>28.602</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>13.86</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>8.2958999999999996</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>42.092799999999997</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>15.040000000000001</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>9.0018999999999991</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>45.676499999999997</v>
+      </c>
+      <c r="AL22" s="8">
+        <v>13.492000000000001</v>
+      </c>
+      <c r="AM22" s="8">
+        <v>8.0742999999999991</v>
+      </c>
+      <c r="AN22" s="8">
+        <v>40.969099999999997</v>
+      </c>
+      <c r="AO22" s="8">
+        <v>14.048000000000002</v>
+      </c>
+      <c r="AP22" s="8">
+        <v>8.4094999999999995</v>
+      </c>
+      <c r="AQ22" s="8">
+        <v>42.669899999999998</v>
+      </c>
+      <c r="AR22" s="8">
+        <v>13.516</v>
+      </c>
+      <c r="AS22" s="8">
+        <v>8.0922999999999998</v>
+      </c>
+      <c r="AT22" s="8">
+        <v>41.060299999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46">
+      <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="12">
-        <v>11.827999999999999</v>
-      </c>
-      <c r="C22" s="12">
-        <v>7.1025</v>
-      </c>
-      <c r="D22" s="12">
-        <v>33.185000000000002</v>
-      </c>
-      <c r="E22" s="12">
-        <v>11.946</v>
-      </c>
-      <c r="F22" s="12">
-        <v>7.3233333333333297</v>
-      </c>
-      <c r="G22" s="12">
-        <v>52.273333333333298</v>
-      </c>
-      <c r="H22" s="12">
-        <v>12.722</v>
-      </c>
-      <c r="I22" s="12">
-        <v>7.94</v>
-      </c>
-      <c r="J22" s="12">
-        <v>43.183333333333302</v>
-      </c>
-      <c r="K22" s="12">
-        <v>9.91</v>
-      </c>
-      <c r="L22" s="12">
-        <v>7.02</v>
-      </c>
-      <c r="M22" s="12">
-        <v>30.61</v>
-      </c>
-      <c r="N22" s="12">
-        <v>11.442</v>
-      </c>
-      <c r="O22" s="12">
-        <v>7.17</v>
-      </c>
-      <c r="P22" s="12">
-        <v>38.196666666666701</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>15.638</v>
-      </c>
-      <c r="R22" s="12">
-        <v>9.0850000000000009</v>
-      </c>
-      <c r="S22" s="12">
-        <v>44.12</v>
-      </c>
-      <c r="T22" s="12">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="U22" s="12">
-        <v>9.2274999999999991</v>
-      </c>
-      <c r="V22" s="12">
-        <v>59.017499999999998</v>
-      </c>
-      <c r="W22" s="12">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="X22" s="12">
-        <v>9.3849999999999998</v>
-      </c>
-      <c r="Y22" s="12">
-        <v>52.984999999999999</v>
-      </c>
-      <c r="Z22" s="12">
-        <v>15.446</v>
-      </c>
-      <c r="AA22" s="12">
-        <v>9.3175000000000008</v>
-      </c>
-      <c r="AB22" s="12">
-        <v>53.017499999999998</v>
-      </c>
-      <c r="AC22" s="12">
-        <v>14.124000000000001</v>
-      </c>
-      <c r="AD22" s="12">
-        <v>9.5060000000000002</v>
-      </c>
-      <c r="AE22" s="12">
-        <v>28.602</v>
-      </c>
-      <c r="AF22" s="12">
-        <v>10.254</v>
-      </c>
-      <c r="AG22" s="12">
-        <v>6.53</v>
-      </c>
-      <c r="AH22" s="12">
-        <v>24.925000000000001</v>
-      </c>
-      <c r="AI22" s="12">
-        <v>11.084</v>
-      </c>
-      <c r="AJ22" s="12">
-        <v>6.6349999999999998</v>
-      </c>
-      <c r="AK22" s="12">
-        <v>32.732500000000002</v>
-      </c>
-      <c r="AL22" s="12">
-        <v>12.084</v>
-      </c>
-      <c r="AM22" s="12">
-        <v>7.5425000000000004</v>
-      </c>
-      <c r="AN22" s="12">
-        <v>32.932499999999997</v>
-      </c>
-      <c r="AO22" s="12">
-        <v>14.875999999999999</v>
-      </c>
-      <c r="AP22" s="12">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="AQ22" s="12">
-        <v>46.26</v>
-      </c>
-      <c r="AR22" s="12">
-        <v>12.454000000000001</v>
-      </c>
-      <c r="AS22" s="12">
-        <v>7.09</v>
-      </c>
-      <c r="AT22" s="12">
-        <v>43.755000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46">
-      <c r="A23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
         <v>11.465999999999999</v>
       </c>
-      <c r="F23" s="12">
-        <v>7.1849999999999996</v>
-      </c>
-      <c r="G23" s="12">
+      <c r="F23" s="8">
+        <v>6.84</v>
+      </c>
+      <c r="G23" s="8">
         <v>35.252499999999998</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="8">
         <v>11.38</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="8">
         <v>6.665</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="8">
         <v>38.664999999999999</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="8">
         <v>10.42</v>
       </c>
-      <c r="L23" s="12">
-        <v>6.6449999999999996</v>
-      </c>
-      <c r="M23" s="12">
+      <c r="L23" s="8">
+        <v>6.41</v>
+      </c>
+      <c r="M23" s="8">
         <v>27.684999999999999</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="8">
         <v>12.132</v>
       </c>
-      <c r="O23" s="12">
-        <v>7.1574999999999998</v>
-      </c>
-      <c r="P23" s="12">
+      <c r="O23" s="8">
+        <v>7.2069999999999999</v>
+      </c>
+      <c r="P23" s="8">
         <v>38.267499999999998</v>
       </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12">
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8">
         <v>13.311999999999999</v>
       </c>
-      <c r="U23" s="12">
-        <v>7.7833333333333297</v>
-      </c>
-      <c r="V23" s="12">
+      <c r="U23" s="8">
+        <v>8.4623000000000008</v>
+      </c>
+      <c r="V23" s="8">
         <v>31.163333333333298</v>
       </c>
-      <c r="W23" s="12">
+      <c r="W23" s="8">
         <v>15.981999999999999</v>
       </c>
-      <c r="X23" s="12">
-        <v>9.6920000000000002</v>
-      </c>
-      <c r="Y23" s="12">
+      <c r="X23" s="8">
+        <v>9.4408999999999992</v>
+      </c>
+      <c r="Y23" s="8">
         <v>51.99</v>
       </c>
-      <c r="Z23" s="12">
+      <c r="Z23" s="8">
         <v>13.853999999999999</v>
       </c>
-      <c r="AA23" s="12">
-        <v>8.7750000000000004</v>
-      </c>
-      <c r="AB23" s="12">
+      <c r="AA23" s="8">
+        <v>8.5211000000000006</v>
+      </c>
+      <c r="AB23" s="8">
         <v>36.972499999999997</v>
       </c>
-      <c r="AC23" s="12">
+      <c r="AC23" s="8">
         <v>14.238</v>
       </c>
-      <c r="AD23" s="12">
-        <v>8.6319999999999997</v>
-      </c>
-      <c r="AE23" s="12">
+      <c r="AD23" s="8">
+        <v>8.3003</v>
+      </c>
+      <c r="AE23" s="8">
         <v>50.072000000000003</v>
       </c>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12">
-        <v>16.042000000000002</v>
-      </c>
-      <c r="AJ23" s="12">
-        <v>8.8249999999999993</v>
-      </c>
-      <c r="AK23" s="12">
-        <v>75.482500000000002</v>
-      </c>
-      <c r="AL23" s="12">
-        <v>13.641999999999999</v>
-      </c>
-      <c r="AM23" s="12">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="AN23" s="12">
-        <v>45.912500000000001</v>
-      </c>
-      <c r="AO23" s="12">
-        <v>13.762</v>
-      </c>
-      <c r="AP23" s="12">
-        <v>8.15</v>
-      </c>
-      <c r="AQ23" s="12">
-        <v>38.975000000000001</v>
-      </c>
-      <c r="AR23" s="12">
-        <v>16.052</v>
-      </c>
-      <c r="AS23" s="12">
-        <v>8.9425000000000008</v>
-      </c>
-      <c r="AT23" s="12">
-        <v>71.637500000000003</v>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8">
+        <v>16.18</v>
+      </c>
+      <c r="AJ23" s="8">
+        <v>9.7444000000000006</v>
+      </c>
+      <c r="AK23" s="8">
+        <v>47.650100000000002</v>
+      </c>
+      <c r="AL23" s="8">
+        <v>13.76</v>
+      </c>
+      <c r="AM23" s="8">
+        <v>8.2871000000000006</v>
+      </c>
+      <c r="AN23" s="8">
+        <v>40.523200000000003</v>
+      </c>
+      <c r="AO23" s="8">
+        <v>14.967499999999999</v>
+      </c>
+      <c r="AP23" s="8">
+        <v>9.0154999999999994</v>
+      </c>
+      <c r="AQ23" s="8">
+        <v>44.0867</v>
+      </c>
+      <c r="AR23" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="AS23" s="8">
+        <v>8.6122999999999994</v>
+      </c>
+      <c r="AT23" s="8">
+        <v>42.113500000000002</v>
       </c>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <v>13.314</v>
+      </c>
+      <c r="F24" s="8">
+        <v>7.5998000000000001</v>
+      </c>
+      <c r="G24" s="8">
+        <v>53.527500000000003</v>
+      </c>
+      <c r="H24" s="8">
+        <v>12.901999999999999</v>
+      </c>
+      <c r="I24" s="8">
+        <v>7.7210000000000001</v>
+      </c>
+      <c r="J24" s="8">
+        <v>39.183333333333302</v>
+      </c>
+      <c r="K24" s="8">
+        <v>10.102</v>
+      </c>
+      <c r="L24" s="8">
+        <v>6.1143000000000001</v>
+      </c>
+      <c r="M24" s="8">
+        <v>29.01</v>
+      </c>
+      <c r="N24" s="8">
+        <v>10.212</v>
+      </c>
+      <c r="O24" s="8">
+        <v>6.3925000000000001</v>
+      </c>
+      <c r="P24" s="8">
+        <v>25.375</v>
+      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8">
+        <v>16.911999999999999</v>
+      </c>
+      <c r="U24" s="8">
+        <v>9.5223999999999993</v>
+      </c>
+      <c r="V24" s="8">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="W24" s="8">
+        <v>16.442</v>
+      </c>
+      <c r="X24" s="8">
+        <v>9.5364000000000004</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>59.545000000000002</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>15.506</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="AB24" s="8">
+        <v>41.255000000000003</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>15.628</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>9.6378000000000004</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>41.314999999999998</v>
+      </c>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8">
+        <v>14.373333333333335</v>
+      </c>
+      <c r="AJ24" s="8">
+        <v>8.4471000000000007</v>
+      </c>
+      <c r="AK24" s="8">
+        <v>48.091999999999999</v>
+      </c>
+      <c r="AL24" s="8">
+        <v>14.524000000000001</v>
+      </c>
+      <c r="AM24" s="8">
+        <v>8.5352999999999994</v>
+      </c>
+      <c r="AN24" s="8">
+        <v>48.594000000000001</v>
+      </c>
+      <c r="AO24" s="8">
+        <v>14.077999999999999</v>
+      </c>
+      <c r="AP24" s="8">
+        <v>8.2766000000000002</v>
+      </c>
+      <c r="AQ24" s="8">
+        <v>47.121499999999997</v>
+      </c>
+      <c r="AR24" s="8">
+        <v>14.2075</v>
+      </c>
+      <c r="AS24" s="8">
+        <v>8.3528000000000002</v>
+      </c>
+      <c r="AT24" s="8">
+        <v>47.556600000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46">
+      <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
-        <v>13.314</v>
-      </c>
-      <c r="F24" s="12">
-        <v>7.74</v>
-      </c>
-      <c r="G24" s="12">
-        <v>53.527500000000003</v>
-      </c>
-      <c r="H24" s="12">
-        <v>12.901999999999999</v>
-      </c>
-      <c r="I24" s="12">
-        <v>8.0533333333333292</v>
-      </c>
-      <c r="J24" s="12">
-        <v>39.183333333333302</v>
-      </c>
-      <c r="K24" s="12">
-        <v>10.102</v>
-      </c>
-      <c r="L24" s="12">
-        <v>6.2975000000000003</v>
-      </c>
-      <c r="M24" s="12">
-        <v>29.01</v>
-      </c>
-      <c r="N24" s="12">
-        <v>10.212</v>
-      </c>
-      <c r="O24" s="12">
-        <v>6.5724999999999998</v>
-      </c>
-      <c r="P24" s="12">
-        <v>25.375</v>
-      </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12">
-        <v>16.911999999999999</v>
-      </c>
-      <c r="U24" s="12">
-        <v>9.5619999999999994</v>
-      </c>
-      <c r="V24" s="12">
-        <v>75.430000000000007</v>
-      </c>
-      <c r="W24" s="12">
-        <v>16.442</v>
-      </c>
-      <c r="X24" s="12">
-        <v>9.4175000000000004</v>
-      </c>
-      <c r="Y24" s="12">
-        <v>59.545000000000002</v>
-      </c>
-      <c r="Z24" s="12">
-        <v>15.506</v>
-      </c>
-      <c r="AA24" s="12">
-        <v>9.7650000000000006</v>
-      </c>
-      <c r="AB24" s="12">
-        <v>41.255000000000003</v>
-      </c>
-      <c r="AC24" s="12">
-        <v>15.628</v>
-      </c>
-      <c r="AD24" s="12">
-        <v>9.43</v>
-      </c>
-      <c r="AE24" s="12">
-        <v>41.314999999999998</v>
-      </c>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12">
-        <v>13.401999999999999</v>
-      </c>
-      <c r="AJ24" s="12">
-        <v>7.8150000000000004</v>
-      </c>
-      <c r="AK24" s="12">
-        <v>46.397500000000001</v>
-      </c>
-      <c r="AL24" s="12">
-        <v>12.346</v>
-      </c>
-      <c r="AM24" s="12">
-        <v>7.4950000000000001</v>
-      </c>
-      <c r="AN24" s="12">
-        <v>42.597499999999997</v>
-      </c>
-      <c r="AO24" s="12">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="AP24" s="12">
-        <v>8.9425000000000008</v>
-      </c>
-      <c r="AQ24" s="12">
-        <v>70.447500000000005</v>
-      </c>
-      <c r="AR24" s="12">
-        <v>15.254</v>
-      </c>
-      <c r="AS24" s="12">
-        <v>8.9049999999999994</v>
-      </c>
-      <c r="AT24" s="12">
-        <v>49.08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:46">
-      <c r="A25" s="9" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
+        <v>14.282</v>
+      </c>
+      <c r="F25" s="8">
+        <v>7.9924999999999997</v>
+      </c>
+      <c r="G25" s="8">
+        <v>66.632499999999993</v>
+      </c>
+      <c r="H25" s="8">
+        <v>11.528</v>
+      </c>
+      <c r="I25" s="8">
+        <v>6.6825000000000001</v>
+      </c>
+      <c r="J25" s="8">
+        <v>41.86</v>
+      </c>
+      <c r="K25" s="8">
+        <v>12.843999999999999</v>
+      </c>
+      <c r="L25" s="8">
+        <v>7.38</v>
+      </c>
+      <c r="M25" s="8">
+        <v>48.927500000000002</v>
+      </c>
+      <c r="N25" s="8">
+        <v>11.852</v>
+      </c>
+      <c r="O25" s="8">
+        <v>6.9029999999999996</v>
+      </c>
+      <c r="P25" s="8">
+        <v>41.816666666666698</v>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8">
+        <v>16.326000000000001</v>
+      </c>
+      <c r="U25" s="8">
+        <v>9.5103000000000009</v>
+      </c>
+      <c r="V25" s="8">
+        <v>57.72</v>
+      </c>
+      <c r="W25" s="8">
+        <v>16.224</v>
+      </c>
+      <c r="X25" s="8">
+        <v>9.4777000000000005</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>14.584</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>8.7563999999999993</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>43.532499999999999</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>14.904</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>10.1654</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>27.885000000000002</v>
+      </c>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8">
+        <v>14.9</v>
+      </c>
+      <c r="AJ25" s="8">
+        <v>8.9614999999999991</v>
+      </c>
+      <c r="AK25" s="8">
+        <v>44.166800000000002</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>13.44</v>
+      </c>
+      <c r="AM25" s="8">
+        <v>8.0835000000000008</v>
+      </c>
+      <c r="AN25" s="8">
+        <v>39.839100000000002</v>
+      </c>
+      <c r="AO25" s="8">
+        <v>14.795</v>
+      </c>
+      <c r="AP25" s="8">
+        <v>8.9015000000000004</v>
+      </c>
+      <c r="AQ25" s="8">
+        <v>43.870399999999997</v>
+      </c>
+      <c r="AR25" s="8">
+        <v>14.02</v>
+      </c>
+      <c r="AS25" s="8">
+        <v>8.4322999999999997</v>
+      </c>
+      <c r="AT25" s="8">
+        <v>41.558300000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
+      <c r="A26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12">
-        <v>14.282</v>
-      </c>
-      <c r="F25" s="12">
-        <v>8.0625</v>
-      </c>
-      <c r="G25" s="12">
-        <v>66.632499999999993</v>
-      </c>
-      <c r="H25" s="12">
-        <v>11.528</v>
-      </c>
-      <c r="I25" s="12">
-        <v>6.8425000000000002</v>
-      </c>
-      <c r="J25" s="12">
-        <v>41.86</v>
-      </c>
-      <c r="K25" s="12">
-        <v>12.843999999999999</v>
-      </c>
-      <c r="L25" s="12">
-        <v>7.48</v>
-      </c>
-      <c r="M25" s="12">
-        <v>48.927500000000002</v>
-      </c>
-      <c r="N25" s="12">
-        <v>11.852</v>
-      </c>
-      <c r="O25" s="12">
-        <v>7.2733333333333299</v>
-      </c>
-      <c r="P25" s="12">
-        <v>41.816666666666698</v>
-      </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12">
-        <v>16.326000000000001</v>
-      </c>
-      <c r="U25" s="12">
-        <v>9.3925000000000001</v>
-      </c>
-      <c r="V25" s="12">
-        <v>57.72</v>
-      </c>
-      <c r="W25" s="12">
-        <v>16.224</v>
-      </c>
-      <c r="X25" s="12">
-        <v>9.5280000000000005</v>
-      </c>
-      <c r="Y25" s="12">
-        <v>56.2</v>
-      </c>
-      <c r="Z25" s="12">
-        <v>14.584</v>
-      </c>
-      <c r="AA25" s="12">
-        <v>9.1050000000000004</v>
-      </c>
-      <c r="AB25" s="12">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <v>12.738</v>
+      </c>
+      <c r="F26" s="8">
+        <v>7.7946999999999997</v>
+      </c>
+      <c r="G26" s="8">
+        <v>34.852499999999999</v>
+      </c>
+      <c r="H26" s="8">
+        <v>11.878</v>
+      </c>
+      <c r="I26" s="8">
+        <v>6.8769999999999998</v>
+      </c>
+      <c r="J26" s="8">
+        <v>43.577500000000001</v>
+      </c>
+      <c r="K26" s="8">
+        <v>12.71</v>
+      </c>
+      <c r="L26" s="8">
+        <v>7.2816000000000001</v>
+      </c>
+      <c r="M26" s="8">
+        <v>49.9375</v>
+      </c>
+      <c r="N26" s="8">
+        <v>11.986000000000001</v>
+      </c>
+      <c r="O26" s="8">
+        <v>7.0137999999999998</v>
+      </c>
+      <c r="P26" s="8">
+        <v>41.27</v>
+      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8">
+        <v>16.373999999999999</v>
+      </c>
+      <c r="U26" s="8">
+        <v>9.4327000000000005</v>
+      </c>
+      <c r="V26" s="8">
+        <v>61.88</v>
+      </c>
+      <c r="W26" s="8">
+        <v>15.956</v>
+      </c>
+      <c r="X26" s="8">
+        <v>9.4572000000000003</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>51.087499999999999</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>15.391999999999999</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>9.3474000000000004</v>
+      </c>
+      <c r="AB26" s="8">
         <v>43.532499999999999</v>
       </c>
-      <c r="AC25" s="12">
-        <v>14.904</v>
-      </c>
-      <c r="AD25" s="12">
-        <v>10.535</v>
-      </c>
-      <c r="AE25" s="12">
-        <v>27.885000000000002</v>
-      </c>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12">
-        <v>13.266</v>
-      </c>
-      <c r="AJ25" s="12">
-        <v>7.83</v>
-      </c>
-      <c r="AK25" s="12">
-        <v>46.844999999999999</v>
-      </c>
-      <c r="AL25" s="12">
-        <v>11.92</v>
-      </c>
-      <c r="AM25" s="12">
-        <v>7.1224999999999996</v>
-      </c>
-      <c r="AN25" s="12">
-        <v>28.285</v>
-      </c>
-      <c r="AO25" s="12">
-        <v>13.933999999999999</v>
-      </c>
-      <c r="AP25" s="12">
-        <v>8.1349999999999998</v>
-      </c>
-      <c r="AQ25" s="12">
-        <v>47.935000000000002</v>
-      </c>
-      <c r="AR25" s="12">
-        <v>14.372</v>
-      </c>
-      <c r="AS25" s="12">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="AT25" s="12">
-        <v>49.682499999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:46">
-      <c r="A26" s="9" t="s">
+      <c r="AC26" s="8">
+        <v>14.878</v>
+      </c>
+      <c r="AD26" s="8">
+        <v>9.3713999999999995</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>36.1</v>
+      </c>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8">
+        <v>15.04</v>
+      </c>
+      <c r="AJ26" s="8">
+        <v>8.9892000000000003</v>
+      </c>
+      <c r="AK26" s="8">
+        <v>46.006399999999999</v>
+      </c>
+      <c r="AL26" s="8">
+        <v>15.765000000000001</v>
+      </c>
+      <c r="AM26" s="8">
+        <v>9.4257000000000009</v>
+      </c>
+      <c r="AN26" s="8">
+        <v>48.239400000000003</v>
+      </c>
+      <c r="AO26" s="8">
+        <v>14.386666666666668</v>
+      </c>
+      <c r="AP26" s="8">
+        <v>8.6007999999999996</v>
+      </c>
+      <c r="AQ26" s="8">
+        <v>44.018099999999997</v>
+      </c>
+      <c r="AR26" s="8">
+        <v>14.405000000000001</v>
+      </c>
+      <c r="AS26" s="8">
+        <v>8.6128</v>
+      </c>
+      <c r="AT26" s="8">
+        <v>44.079300000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46">
+      <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12">
-        <v>12.738</v>
-      </c>
-      <c r="F26" s="12">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="G26" s="12">
-        <v>34.852499999999999</v>
-      </c>
-      <c r="H26" s="12">
-        <v>11.878</v>
-      </c>
-      <c r="I26" s="12">
-        <v>7.0925000000000002</v>
-      </c>
-      <c r="J26" s="12">
-        <v>43.577500000000001</v>
-      </c>
-      <c r="K26" s="12">
-        <v>12.71</v>
-      </c>
-      <c r="L26" s="12">
-        <v>7.3550000000000004</v>
-      </c>
-      <c r="M26" s="12">
-        <v>49.9375</v>
-      </c>
-      <c r="N26" s="12">
-        <v>11.986000000000001</v>
-      </c>
-      <c r="O26" s="12">
-        <v>7.2649999999999997</v>
-      </c>
-      <c r="P26" s="12">
-        <v>41.27</v>
-      </c>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12">
-        <v>16.373999999999999</v>
-      </c>
-      <c r="U26" s="12">
-        <v>9.3674999999999997</v>
-      </c>
-      <c r="V26" s="12">
-        <v>61.88</v>
-      </c>
-      <c r="W26" s="12">
-        <v>15.956</v>
-      </c>
-      <c r="X26" s="12">
-        <v>9.4175000000000004</v>
-      </c>
-      <c r="Y26" s="12">
-        <v>51.087499999999999</v>
-      </c>
-      <c r="Z26" s="12">
-        <v>15.391999999999999</v>
-      </c>
-      <c r="AA26" s="12">
-        <v>9.1050000000000004</v>
-      </c>
-      <c r="AB26" s="12">
-        <v>43.532499999999999</v>
-      </c>
-      <c r="AC26" s="12">
-        <v>14.878</v>
-      </c>
-      <c r="AD26" s="12">
-        <v>9.16</v>
-      </c>
-      <c r="AE26" s="12">
-        <v>36.1</v>
-      </c>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12">
-        <v>13.378</v>
-      </c>
-      <c r="AJ26" s="12">
-        <v>8</v>
-      </c>
-      <c r="AK26" s="12">
-        <v>45.472499999999997</v>
-      </c>
-      <c r="AL26" s="12">
-        <v>11.928000000000001</v>
-      </c>
-      <c r="AM26" s="12">
-        <v>7.06</v>
-      </c>
-      <c r="AN26" s="12">
-        <v>29.747499999999999</v>
-      </c>
-      <c r="AO26" s="12">
-        <v>13.464</v>
-      </c>
-      <c r="AP26" s="12">
-        <v>7.85</v>
-      </c>
-      <c r="AQ26" s="12">
-        <v>45.295000000000002</v>
-      </c>
-      <c r="AR26" s="12">
-        <v>14.738</v>
-      </c>
-      <c r="AS26" s="12">
-        <v>8.4749999999999996</v>
-      </c>
-      <c r="AT26" s="12">
-        <v>57.057499999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8">
+        <v>12.891999999999999</v>
+      </c>
+      <c r="F27" s="8">
+        <v>7.5824999999999996</v>
+      </c>
+      <c r="G27" s="8">
+        <v>42.8825</v>
+      </c>
+      <c r="H27" s="8">
+        <v>13.73</v>
+      </c>
+      <c r="I27" s="8">
+        <v>7.79</v>
+      </c>
+      <c r="J27" s="8">
+        <v>57.462499999999999</v>
+      </c>
+      <c r="K27" s="8">
+        <v>13.872</v>
+      </c>
+      <c r="L27" s="8">
+        <v>7.7949999999999999</v>
+      </c>
+      <c r="M27" s="8">
+        <v>63.1325</v>
+      </c>
+      <c r="N27" s="8">
+        <v>12.75</v>
+      </c>
+      <c r="O27" s="8">
+        <v>7.4874999999999998</v>
+      </c>
+      <c r="P27" s="8">
+        <v>42.975000000000001</v>
+      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8">
+        <v>16.797999999999998</v>
+      </c>
+      <c r="U27" s="8">
+        <v>10.0288</v>
+      </c>
+      <c r="V27" s="8">
+        <v>51.72</v>
+      </c>
+      <c r="W27" s="8">
+        <v>15.087999999999999</v>
+      </c>
+      <c r="X27" s="8">
+        <v>9.1039999999999992</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>44.06</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>16.146000000000001</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>10.1869</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>38.945</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>15.852</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>9.6365999999999996</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>44.615000000000002</v>
+      </c>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8">
+        <v>15.855</v>
+      </c>
+      <c r="AJ27" s="8">
+        <v>9.6491000000000007</v>
+      </c>
+      <c r="AK27" s="8">
+        <v>44.508299999999998</v>
+      </c>
+      <c r="AL27" s="8">
+        <v>12.62</v>
+      </c>
+      <c r="AM27" s="8">
+        <v>7.6778000000000004</v>
+      </c>
+      <c r="AN27" s="8">
+        <v>35.415799999999997</v>
+      </c>
+      <c r="AO27" s="8">
+        <v>14.094999999999999</v>
+      </c>
+      <c r="AP27" s="8">
+        <v>8.5784000000000002</v>
+      </c>
+      <c r="AQ27" s="8">
+        <v>39.569200000000002</v>
+      </c>
+      <c r="AR27" s="8">
+        <v>14.41</v>
+      </c>
+      <c r="AS27" s="8">
+        <v>8.7669999999999995</v>
+      </c>
+      <c r="AT27" s="8">
+        <v>40.439100000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46">
+      <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12">
-        <v>12.891999999999999</v>
-      </c>
-      <c r="F27" s="12">
-        <v>7.6825000000000001</v>
-      </c>
-      <c r="G27" s="12">
-        <v>42.8825</v>
-      </c>
-      <c r="H27" s="12">
-        <v>13.73</v>
-      </c>
-      <c r="I27" s="12">
-        <v>7.75</v>
-      </c>
-      <c r="J27" s="12">
-        <v>57.462499999999999</v>
-      </c>
-      <c r="K27" s="12">
-        <v>13.872</v>
-      </c>
-      <c r="L27" s="12">
-        <v>7.8150000000000004</v>
-      </c>
-      <c r="M27" s="12">
-        <v>63.1325</v>
-      </c>
-      <c r="N27" s="12">
-        <v>12.75</v>
-      </c>
-      <c r="O27" s="12">
-        <v>7.6375000000000002</v>
-      </c>
-      <c r="P27" s="12">
-        <v>42.975000000000001</v>
-      </c>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12">
-        <v>16.797999999999998</v>
-      </c>
-      <c r="U27" s="12">
-        <v>10.0025</v>
-      </c>
-      <c r="V27" s="12">
-        <v>51.72</v>
-      </c>
-      <c r="W27" s="12">
-        <v>15.087999999999999</v>
-      </c>
-      <c r="X27" s="12">
-        <v>9.3025000000000002</v>
-      </c>
-      <c r="Y27" s="12">
-        <v>44.06</v>
-      </c>
-      <c r="Z27" s="12">
-        <v>16.146000000000001</v>
-      </c>
-      <c r="AA27" s="12">
-        <v>10.1225</v>
-      </c>
-      <c r="AB27" s="12">
-        <v>38.945</v>
-      </c>
-      <c r="AC27" s="12">
-        <v>15.852</v>
-      </c>
-      <c r="AD27" s="12">
-        <v>9.4849999999999994</v>
-      </c>
-      <c r="AE27" s="12">
-        <v>44.615000000000002</v>
-      </c>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12">
-        <v>14.667999999999999</v>
-      </c>
-      <c r="AJ27" s="12">
-        <v>8.3375000000000004</v>
-      </c>
-      <c r="AK27" s="12">
-        <v>62.29</v>
-      </c>
-      <c r="AL27" s="12">
-        <v>13.478</v>
-      </c>
-      <c r="AM27" s="12">
-        <v>8.0549999999999997</v>
-      </c>
-      <c r="AN27" s="12">
-        <v>50.497500000000002</v>
-      </c>
-      <c r="AO27" s="12">
-        <v>15.266</v>
-      </c>
-      <c r="AP27" s="12">
-        <v>8.7349999999999994</v>
-      </c>
-      <c r="AQ27" s="12">
-        <v>64.385000000000005</v>
-      </c>
-      <c r="AR27" s="12">
-        <v>11.821999999999999</v>
-      </c>
-      <c r="AS27" s="12">
-        <v>8.0066666666666695</v>
-      </c>
-      <c r="AT27" s="12">
-        <v>37.976666666666702</v>
-      </c>
-    </row>
-    <row r="28" spans="1:46">
-      <c r="A28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
         <v>11.648</v>
       </c>
-      <c r="F28" s="12">
-        <v>6.94</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="F28" s="8">
+        <v>6.89</v>
+      </c>
+      <c r="G28" s="8">
         <v>37.595999999999997</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="8">
         <v>11.89</v>
       </c>
-      <c r="I28" s="12">
-        <v>6.9974999999999996</v>
-      </c>
-      <c r="J28" s="12">
+      <c r="I28" s="8">
+        <v>6.9414999999999996</v>
+      </c>
+      <c r="J28" s="8">
         <v>41.195</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="8">
         <v>13.14</v>
       </c>
-      <c r="L28" s="12">
-        <v>7.6025</v>
-      </c>
-      <c r="M28" s="12">
+      <c r="L28" s="8">
+        <v>7.5824999999999996</v>
+      </c>
+      <c r="M28" s="8">
         <v>49.02</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="8">
         <v>12.176</v>
       </c>
-      <c r="O28" s="12">
-        <v>7.1133333333333297</v>
-      </c>
-      <c r="P28" s="12">
+      <c r="O28" s="8">
+        <v>7.1733333333333302</v>
+      </c>
+      <c r="P28" s="8">
         <v>40.43</v>
       </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12">
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8">
         <v>16.995999999999999</v>
       </c>
-      <c r="U28" s="12">
-        <v>9.6624999999999996</v>
-      </c>
-      <c r="V28" s="12">
+      <c r="U28" s="8">
+        <v>9.7905999999999995</v>
+      </c>
+      <c r="V28" s="8">
         <v>64.474999999999994</v>
       </c>
-      <c r="W28" s="12">
+      <c r="W28" s="8">
         <v>15.295999999999999</v>
       </c>
-      <c r="X28" s="12">
-        <v>9.2050000000000001</v>
-      </c>
-      <c r="Y28" s="12">
+      <c r="X28" s="8">
+        <v>9.0332000000000008</v>
+      </c>
+      <c r="Y28" s="8">
         <v>49.954999999999998</v>
       </c>
-      <c r="Z28" s="12">
+      <c r="Z28" s="8">
         <v>16.248000000000001</v>
       </c>
-      <c r="AA28" s="12">
-        <v>9.3125</v>
-      </c>
-      <c r="AB28" s="12">
+      <c r="AA28" s="8">
+        <v>9.3876000000000008</v>
+      </c>
+      <c r="AB28" s="8">
         <v>60.405000000000001</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AC28" s="8">
         <v>16.178000000000001</v>
       </c>
-      <c r="AD28" s="12">
-        <v>9.6074999999999999</v>
-      </c>
-      <c r="AE28" s="12">
+      <c r="AD28" s="8">
+        <v>9.6181000000000001</v>
+      </c>
+      <c r="AE28" s="8">
         <v>50.92</v>
       </c>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12">
-        <v>11.614000000000001</v>
-      </c>
-      <c r="AJ28" s="12">
-        <v>7.2625000000000002</v>
-      </c>
-      <c r="AK28" s="12">
-        <v>30.715</v>
-      </c>
-      <c r="AL28" s="12">
-        <v>13.752000000000001</v>
-      </c>
-      <c r="AM28" s="12">
-        <v>8.2524999999999995</v>
-      </c>
-      <c r="AN28" s="12">
-        <v>41.06</v>
-      </c>
-      <c r="AO28" s="12">
-        <v>14.332000000000001</v>
-      </c>
-      <c r="AP28" s="12">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="AQ28" s="12">
-        <v>69.045000000000002</v>
-      </c>
-      <c r="AR28" s="12">
-        <v>14.348000000000001</v>
-      </c>
-      <c r="AS28" s="12">
-        <v>8.375</v>
-      </c>
-      <c r="AT28" s="12">
-        <v>59.604999999999997</v>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8">
+        <v>15.766</v>
+      </c>
+      <c r="AJ28" s="8">
+        <v>9.2077000000000009</v>
+      </c>
+      <c r="AK28" s="8">
+        <v>54.891199999999998</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>15.520000000000001</v>
+      </c>
+      <c r="AM28" s="8">
+        <v>9.0617000000000001</v>
+      </c>
+      <c r="AN28" s="8">
+        <v>54.021000000000001</v>
+      </c>
+      <c r="AO28" s="8">
+        <v>14.362</v>
+      </c>
+      <c r="AP28" s="8">
+        <v>8.3844999999999992</v>
+      </c>
+      <c r="AQ28" s="8">
+        <v>49.9833</v>
+      </c>
+      <c r="AR28" s="8">
+        <v>14.646666666666667</v>
+      </c>
+      <c r="AS28" s="8">
+        <v>8.5538000000000007</v>
+      </c>
+      <c r="AT28" s="8">
+        <v>50.992699999999999</v>
       </c>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12">
+      <c r="A29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8">
         <v>15.156000000000001</v>
       </c>
-      <c r="F29" s="12">
-        <v>8.5549999999999997</v>
-      </c>
-      <c r="G29" s="12">
+      <c r="F29" s="8">
+        <v>8.5649999999999995</v>
+      </c>
+      <c r="G29" s="8">
         <v>65.064999999999998</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="8">
         <v>15.066000000000001</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="8">
         <v>8.5</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="8">
         <v>66.971999999999994</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="8">
         <v>15.648</v>
       </c>
-      <c r="L29" s="12">
-        <v>8.66</v>
-      </c>
-      <c r="M29" s="12">
+      <c r="L29" s="8">
+        <v>8.65</v>
+      </c>
+      <c r="M29" s="8">
         <v>81.847999999999999</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="8">
         <v>16.026</v>
       </c>
-      <c r="O29" s="12">
-        <v>9.0175000000000001</v>
-      </c>
-      <c r="P29" s="12">
+      <c r="O29" s="8">
+        <v>9.0775000000000006</v>
+      </c>
+      <c r="P29" s="8">
         <v>67.972499999999997</v>
       </c>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12">
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8">
         <v>18.574000000000002</v>
       </c>
-      <c r="U29" s="12">
-        <v>10.51</v>
-      </c>
-      <c r="V29" s="12">
+      <c r="U29" s="8">
+        <v>10.504300000000001</v>
+      </c>
+      <c r="V29" s="8">
         <v>79.988</v>
       </c>
-      <c r="W29" s="12">
+      <c r="W29" s="8">
         <v>18.47</v>
       </c>
-      <c r="X29" s="12">
-        <v>10.654999999999999</v>
-      </c>
-      <c r="Y29" s="12">
+      <c r="X29" s="8">
+        <v>10.5656</v>
+      </c>
+      <c r="Y29" s="8">
         <v>73.327500000000001</v>
       </c>
-      <c r="Z29" s="12">
+      <c r="Z29" s="8">
         <v>19.213999999999999</v>
       </c>
-      <c r="AA29" s="12">
-        <v>10.55</v>
-      </c>
-      <c r="AB29" s="12">
+      <c r="AA29" s="8">
+        <v>10.997199999999999</v>
+      </c>
+      <c r="AB29" s="8">
         <v>75.87</v>
       </c>
-      <c r="AC29" s="12">
+      <c r="AC29" s="8">
         <v>18.161999999999999</v>
       </c>
-      <c r="AD29" s="12">
-        <v>10.6975</v>
-      </c>
-      <c r="AE29" s="12">
+      <c r="AD29" s="8">
+        <v>10.576000000000001</v>
+      </c>
+      <c r="AE29" s="8">
         <v>64.19</v>
       </c>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12">
-        <v>17.202000000000002</v>
-      </c>
-      <c r="AJ29" s="12">
-        <v>9.64</v>
-      </c>
-      <c r="AK29" s="12">
-        <v>86.7</v>
-      </c>
-      <c r="AL29" s="12">
-        <v>17.238</v>
-      </c>
-      <c r="AM29" s="12">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AN29" s="12">
-        <v>64.45</v>
-      </c>
-      <c r="AO29" s="12">
-        <v>17.713999999999999</v>
-      </c>
-      <c r="AP29" s="12">
-        <v>10.63</v>
-      </c>
-      <c r="AQ29" s="12">
-        <v>70.84</v>
-      </c>
-      <c r="AR29" s="12">
-        <v>18.57</v>
-      </c>
-      <c r="AS29" s="12">
-        <v>10.23</v>
-      </c>
-      <c r="AT29" s="12">
-        <v>83.02</v>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8">
+        <v>17.742000000000001</v>
+      </c>
+      <c r="AJ29" s="8">
+        <v>10.1592</v>
+      </c>
+      <c r="AK29" s="8">
+        <v>69.903999999999996</v>
+      </c>
+      <c r="AL29" s="8">
+        <v>17.744</v>
+      </c>
+      <c r="AM29" s="8">
+        <v>10.189399999999999</v>
+      </c>
+      <c r="AN29" s="8">
+        <v>68.504000000000005</v>
+      </c>
+      <c r="AO29" s="8">
+        <v>17.985999999999997</v>
+      </c>
+      <c r="AP29" s="8">
+        <v>10.302199999999999</v>
+      </c>
+      <c r="AQ29" s="8">
+        <v>70.889200000000002</v>
+      </c>
+      <c r="AR29" s="8">
+        <v>18.341666666666669</v>
+      </c>
+      <c r="AS29" s="8">
+        <v>10.502599999999999</v>
+      </c>
+      <c r="AT29" s="8">
+        <v>72.268299999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AR4:AT4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="Q3:AE3"/>
@@ -5088,14 +5111,23 @@
     <mergeCell ref="Q19:AE19"/>
     <mergeCell ref="AF19:AT19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>